--- a/files/postsData.xlsx
+++ b/files/postsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Playwright_Training\Playwright_Project_20260127\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14DEE52A-A641-4BF9-A57C-AC2FA955DB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4786B18-F7AB-4604-ABDE-23C72EF6BF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34F122D3-7089-438C-B504-695030E6D321}"/>
   </bookViews>
@@ -406,53 +406,53 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
